--- a/biology/Biochimie/Indice_d'hydropathie/Indice_d'hydropathie.xlsx
+++ b/biology/Biochimie/Indice_d'hydropathie/Indice_d'hydropathie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indice_d%27hydropathie</t>
+          <t>Indice_d'hydropathie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biochimie, l’indice (ou parfois index par anglicisme) d’hydropathie est une mesure qui permet de connaître le caractère hydrophile ou hydrophobe de la chaîne latérale d’un acide aminé. L’hydropathie permet ainsi de déterminer la nature hydrophobe d’une région d’une protéine grâce à la séquence d’acides aminés.
 Une chaine latérale d'un acide aminé est hydrophobe si elle est apolaire (chaîne aliphatique composée uniquement d'atomes de carbone et d'hydrogène). Au contraire, elle est polaire si l'acide aminé est chargé électriquement. Les atomes d'oxygène et d'azote peuvent porter des charges électriques partielles par polarisation des liaisons et peuvent donc également participer au caractère hydrophile d'un acide aminé.
